--- a/posesiones/1381243.xlsx
+++ b/posesiones/1381243.xlsx
@@ -1889,10 +1889,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2083,7 +2083,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>5</v>
@@ -2133,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2183,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>19</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2424,7 +2424,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R14">
         <v>25</v>
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2621,7 +2621,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R18">
         <v>41</v>
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R19">
         <v>26</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2827,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R22">
         <v>10</v>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2927,7 +2927,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R24">
         <v>18</v>
@@ -2977,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3027,7 +3027,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R26">
         <v>17</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3127,7 +3127,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R28">
         <v>21</v>
@@ -3180,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3324,7 +3324,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R32">
         <v>20</v>
@@ -3374,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3424,7 +3424,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R34">
         <v>21</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3524,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3668,7 +3668,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R39">
         <v>12</v>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3765,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3856,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R44">
         <v>0</v>
@@ -3959,7 +3959,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R45">
         <v>23</v>
@@ -4009,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4059,7 +4059,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R47">
         <v>7</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4159,7 +4159,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R49">
         <v>9</v>
@@ -4212,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4262,7 +4262,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R51">
         <v>4</v>
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4365,7 +4365,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R53">
         <v>20</v>
@@ -4415,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4465,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4515,7 +4515,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R56">
         <v>9</v>
@@ -4565,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4615,7 +4615,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R58">
         <v>10</v>
@@ -4668,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R60">
         <v>7</v>
@@ -4771,7 +4771,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R61">
         <v>27</v>
@@ -4824,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4874,7 +4874,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R63">
         <v>5</v>
@@ -4924,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4971,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5018,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5065,7 +5065,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5112,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5209,7 +5209,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R70">
         <v>0</v>
@@ -5259,7 +5259,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5353,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5400,7 +5400,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5447,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5544,7 +5544,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R77">
         <v>13</v>
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5647,7 +5647,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R79">
         <v>12</v>
@@ -5700,7 +5700,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R80">
         <v>15</v>
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5803,7 +5803,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R82">
         <v>6</v>
@@ -5856,7 +5856,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R83">
         <v>15</v>
@@ -5909,7 +5909,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5956,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6056,7 +6056,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R87">
         <v>21</v>
@@ -6109,7 +6109,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6159,7 +6159,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R89">
         <v>12</v>
@@ -6212,7 +6212,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6262,7 +6262,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R91">
         <v>13</v>
@@ -6315,7 +6315,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R92">
         <v>26</v>
@@ -6368,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6415,7 +6415,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6462,7 +6462,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6556,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6603,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6700,7 +6700,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R100">
         <v>10</v>
@@ -6753,7 +6753,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R101">
         <v>0</v>
@@ -6806,7 +6806,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R102">
         <v>4</v>
@@ -6856,7 +6856,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6906,7 +6906,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R104">
         <v>18</v>
@@ -6959,7 +6959,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R105">
         <v>15</v>
@@ -7009,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7059,7 +7059,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R107">
         <v>26</v>
@@ -7109,7 +7109,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7159,7 +7159,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7206,7 +7206,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R110">
         <v>25</v>
@@ -7256,7 +7256,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7303,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7353,7 +7353,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R113">
         <v>9</v>
@@ -7403,7 +7403,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7453,7 +7453,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R115">
         <v>4</v>
@@ -7497,10 +7497,10 @@
         <v>1</v>
       </c>
       <c r="P116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q116">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7541,10 +7541,10 @@
         <v>1</v>
       </c>
       <c r="P117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q117">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7594,7 +7594,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R118">
         <v>10</v>
@@ -7644,7 +7644,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7694,7 +7694,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R120">
         <v>9</v>
@@ -7744,7 +7744,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7794,7 +7794,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R122">
         <v>25</v>
@@ -7844,7 +7844,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7894,7 +7894,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R124">
         <v>15</v>
@@ -7944,7 +7944,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7994,7 +7994,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R126">
         <v>7</v>
@@ -8044,7 +8044,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8094,7 +8094,7 @@
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R128">
         <v>5</v>
@@ -8144,7 +8144,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8194,7 +8194,7 @@
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R130">
         <v>6</v>
@@ -8247,7 +8247,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8297,7 +8297,7 @@
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R132">
         <v>6</v>
@@ -8347,7 +8347,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8394,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8441,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8488,7 +8488,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8538,7 +8538,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R137">
         <v>16</v>
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8638,7 +8638,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8691,7 +8691,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R140">
         <v>14</v>
@@ -8741,7 +8741,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8788,7 +8788,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8835,7 +8835,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8882,7 +8882,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8932,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8979,7 +8979,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9079,7 +9079,7 @@
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R148">
         <v>21</v>
@@ -9129,7 +9129,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9270,7 +9270,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9317,7 +9317,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9364,7 +9364,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9411,7 +9411,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9458,7 +9458,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9505,7 +9505,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9649,7 +9649,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R160">
         <v>26</v>
@@ -9702,7 +9702,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9749,7 +9749,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9799,7 +9799,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9846,7 +9846,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9943,7 +9943,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9993,7 +9993,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R167">
         <v>27</v>
@@ -10043,7 +10043,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10093,7 +10093,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R169">
         <v>15</v>
@@ -10146,7 +10146,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R170">
         <v>20</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10249,7 +10249,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R172">
         <v>22</v>
@@ -10302,7 +10302,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10352,7 +10352,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R174">
         <v>18</v>
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10496,7 +10496,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R177">
         <v>17</v>
@@ -10549,7 +10549,7 @@
         <v>1</v>
       </c>
       <c r="Q178">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R178">
         <v>20</v>
@@ -10602,7 +10602,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10652,7 +10652,7 @@
         <v>1</v>
       </c>
       <c r="Q180">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R180">
         <v>22</v>
@@ -10705,7 +10705,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10755,7 +10755,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R182">
         <v>13</v>
@@ -10808,7 +10808,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10858,7 +10858,7 @@
         <v>1</v>
       </c>
       <c r="Q184">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R184">
         <v>23</v>
@@ -10908,7 +10908,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10955,7 +10955,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -11002,7 +11002,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11049,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11096,7 +11096,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11146,7 +11146,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R190">
         <v>11</v>
@@ -11196,7 +11196,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11243,7 +11243,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11293,7 +11293,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R193">
         <v>0</v>
@@ -11346,7 +11346,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R194">
         <v>25</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11443,7 +11443,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11490,7 +11490,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11537,7 +11537,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11584,7 +11584,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11634,7 +11634,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R200">
         <v>17</v>
@@ -11684,7 +11684,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11731,7 +11731,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11778,7 +11778,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11828,7 +11828,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R204">
         <v>0</v>
@@ -11881,7 +11881,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11928,7 +11928,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11975,7 +11975,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -12022,7 +12022,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12072,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12119,7 +12119,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12166,7 +12166,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12213,7 +12213,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12260,7 +12260,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12310,7 +12310,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R214">
         <v>34</v>
@@ -12360,7 +12360,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12410,7 +12410,7 @@
         <v>1</v>
       </c>
       <c r="Q216">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R216">
         <v>20</v>
@@ -12460,7 +12460,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12510,7 +12510,7 @@
         <v>1</v>
       </c>
       <c r="Q218">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R218">
         <v>11</v>
@@ -12560,7 +12560,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12610,7 +12610,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12654,7 +12654,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12704,7 +12704,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R222">
         <v>42</v>
@@ -12757,7 +12757,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12804,7 +12804,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12851,7 +12851,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12898,7 +12898,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12945,7 +12945,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12992,7 +12992,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13039,7 +13039,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13089,7 +13089,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R230">
         <v>15</v>
@@ -13142,7 +13142,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13192,7 +13192,7 @@
         <v>1</v>
       </c>
       <c r="Q232">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R232">
         <v>19</v>
@@ -13245,7 +13245,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13295,7 +13295,7 @@
         <v>1</v>
       </c>
       <c r="Q234">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R234">
         <v>10</v>
@@ -13348,7 +13348,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13398,7 +13398,7 @@
         <v>1</v>
       </c>
       <c r="Q236">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R236">
         <v>7</v>
@@ -13448,7 +13448,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13498,7 +13498,7 @@
         <v>1</v>
       </c>
       <c r="Q238">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R238">
         <v>19</v>
@@ -13551,7 +13551,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13598,7 +13598,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13645,7 +13645,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13692,7 +13692,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13742,7 +13742,7 @@
         <v>1</v>
       </c>
       <c r="Q243">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R243">
         <v>2</v>
@@ -13795,7 +13795,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13845,7 +13845,7 @@
         <v>1</v>
       </c>
       <c r="Q245">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R245">
         <v>7</v>
@@ -13895,7 +13895,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13942,7 +13942,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13992,7 +13992,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R248">
         <v>1</v>
@@ -14045,7 +14045,7 @@
         <v>1</v>
       </c>
       <c r="Q249">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="R249">
         <v>1</v>
@@ -14089,10 +14089,10 @@
         <v>1</v>
       </c>
       <c r="P250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q250">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14139,7 +14139,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14186,7 +14186,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14233,7 +14233,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14280,7 +14280,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14321,10 +14321,10 @@
         <v>1</v>
       </c>
       <c r="P255" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q255">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14374,7 +14374,7 @@
         <v>1</v>
       </c>
       <c r="Q256">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R256">
         <v>11</v>
@@ -14427,7 +14427,7 @@
         <v>1</v>
       </c>
       <c r="Q257">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R257">
         <v>22</v>
@@ -14480,7 +14480,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R258">
         <v>15</v>
@@ -14533,7 +14533,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R259">
         <v>20</v>
@@ -14586,7 +14586,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R260">
         <v>20</v>
@@ -14639,7 +14639,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14686,7 +14686,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14733,7 +14733,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14780,7 +14780,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14827,7 +14827,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14874,7 +14874,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14921,7 +14921,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14968,7 +14968,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -15015,7 +15015,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15062,7 +15062,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15112,7 +15112,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R271">
         <v>13</v>
@@ -15165,7 +15165,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15215,7 +15215,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R273">
         <v>17</v>
@@ -15268,7 +15268,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15318,7 +15318,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R275">
         <v>14</v>
@@ -15368,7 +15368,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15418,7 +15418,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R277">
         <v>20</v>
@@ -15468,7 +15468,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15515,7 +15515,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15565,7 +15565,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15615,7 +15615,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R281">
         <v>33</v>
@@ -15668,7 +15668,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15718,7 +15718,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R283">
         <v>4</v>
@@ -15768,7 +15768,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15818,7 +15818,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R285">
         <v>16</v>
@@ -15868,7 +15868,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15915,7 +15915,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15962,7 +15962,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -16012,7 +16012,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R289">
         <v>11</v>
@@ -16065,7 +16065,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R290">
         <v>22</v>
@@ -16118,7 +16118,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16168,7 +16168,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R292">
         <v>5</v>
@@ -16218,7 +16218,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16265,7 +16265,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16312,7 +16312,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16356,7 +16356,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16403,7 +16403,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16450,7 +16450,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16500,7 +16500,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R299">
         <v>5</v>
@@ -16553,7 +16553,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R300">
         <v>16</v>
@@ -16603,7 +16603,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16653,7 +16653,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16703,7 +16703,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R303">
         <v>26</v>
@@ -16756,7 +16756,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16806,7 +16806,7 @@
         <v>1</v>
       </c>
       <c r="Q305">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R305">
         <v>7</v>
@@ -16856,7 +16856,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16900,7 +16900,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16947,7 +16947,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16994,7 +16994,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -17044,7 +17044,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R310">
         <v>22</v>
@@ -17094,7 +17094,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17144,7 +17144,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17194,7 +17194,7 @@
         <v>1</v>
       </c>
       <c r="Q313">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R313">
         <v>6</v>
@@ -17244,7 +17244,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17294,7 +17294,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R315">
         <v>11</v>
@@ -17347,7 +17347,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R316">
         <v>25</v>
@@ -17400,7 +17400,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17450,7 +17450,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R318">
         <v>16</v>
@@ -17503,7 +17503,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17553,7 +17553,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R320">
         <v>9</v>
@@ -17606,7 +17606,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17656,7 +17656,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R322">
         <v>11</v>
@@ -17706,7 +17706,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17756,7 +17756,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R324">
         <v>21</v>
@@ -17809,7 +17809,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17856,7 +17856,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17903,7 +17903,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17950,7 +17950,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17997,7 +17997,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -18044,7 +18044,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18091,7 +18091,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18141,7 +18141,7 @@
         <v>1</v>
       </c>
       <c r="Q332">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R332">
         <v>14</v>
@@ -18191,7 +18191,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18241,7 +18241,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R334">
         <v>22</v>
@@ -18294,7 +18294,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18344,7 +18344,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R336">
         <v>6</v>
@@ -18397,7 +18397,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18447,7 +18447,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R338">
         <v>5</v>
@@ -18497,7 +18497,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18547,7 +18547,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R340">
         <v>17</v>
@@ -18597,7 +18597,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18647,7 +18647,7 @@
         <v>1</v>
       </c>
       <c r="Q342">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R342">
         <v>19</v>
@@ -18700,7 +18700,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18747,7 +18747,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18797,7 +18797,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18847,7 +18847,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R346">
         <v>19</v>
@@ -18900,7 +18900,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18950,7 +18950,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R348">
         <v>15</v>
@@ -19000,7 +19000,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -19050,7 +19050,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R350">
         <v>20</v>
@@ -19100,7 +19100,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19150,7 +19150,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R352">
         <v>18</v>
@@ -19203,7 +19203,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R353">
         <v>23</v>
@@ -19256,7 +19256,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R354">
         <v>0</v>
@@ -19300,10 +19300,10 @@
         <v>1</v>
       </c>
       <c r="P355" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q355">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19350,7 +19350,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19397,7 +19397,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19438,10 +19438,10 @@
         <v>1</v>
       </c>
       <c r="P358" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q358">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19491,7 +19491,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R359">
         <v>9</v>
@@ -19541,7 +19541,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19591,7 +19591,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R361">
         <v>23</v>
@@ -19641,7 +19641,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19688,7 +19688,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19738,7 +19738,7 @@
         <v>1</v>
       </c>
       <c r="Q364">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R364">
         <v>0</v>
@@ -19788,7 +19788,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19835,7 +19835,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19885,7 +19885,7 @@
         <v>1</v>
       </c>
       <c r="Q367">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R367">
         <v>18</v>
@@ -19938,7 +19938,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19988,7 +19988,7 @@
         <v>1</v>
       </c>
       <c r="Q369">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R369">
         <v>6</v>
@@ -20041,7 +20041,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R370">
         <v>17</v>
@@ -20091,7 +20091,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20138,7 +20138,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20188,7 +20188,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R373">
         <v>19</v>
@@ -20241,7 +20241,7 @@
         <v>1</v>
       </c>
       <c r="Q374">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R374">
         <v>11</v>
@@ -20294,7 +20294,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R375">
         <v>15</v>
@@ -20347,7 +20347,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20397,7 +20397,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R377">
         <v>10</v>
@@ -20447,7 +20447,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20491,7 +20491,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20538,7 +20538,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20585,7 +20585,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20635,7 +20635,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R382">
         <v>14</v>
@@ -20685,7 +20685,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20735,7 +20735,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R384">
         <v>17</v>
@@ -20788,7 +20788,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R385">
         <v>16</v>
@@ -20838,7 +20838,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20888,7 +20888,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R387">
         <v>11</v>
@@ -20941,7 +20941,7 @@
         <v>1</v>
       </c>
       <c r="Q388">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R388">
         <v>14</v>
@@ -20994,7 +20994,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -21044,7 +21044,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R390">
         <v>5</v>
@@ -21094,7 +21094,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21144,7 +21144,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R392">
         <v>9</v>
@@ -21194,7 +21194,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21244,7 +21244,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R394">
         <v>17</v>
@@ -21294,7 +21294,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21341,7 +21341,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21388,7 +21388,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21435,7 +21435,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21482,7 +21482,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21532,7 +21532,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R400">
         <v>18</v>
@@ -21582,7 +21582,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21632,7 +21632,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R402">
         <v>17</v>
@@ -21682,7 +21682,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21729,7 +21729,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21779,7 +21779,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21829,7 +21829,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R406">
         <v>28</v>
@@ -21879,7 +21879,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21926,7 +21926,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21973,7 +21973,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -22020,7 +22020,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -22067,7 +22067,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22114,7 +22114,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22161,7 +22161,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22208,7 +22208,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22258,7 +22258,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R415">
         <v>13</v>
@@ -22308,7 +22308,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22355,7 +22355,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22405,7 +22405,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R418">
         <v>28</v>
@@ -22455,7 +22455,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22502,7 +22502,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22552,7 +22552,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22602,7 +22602,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R422">
         <v>23</v>
@@ -22652,7 +22652,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22702,7 +22702,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R424">
         <v>10</v>
@@ -22752,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22802,7 +22802,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R426">
         <v>18</v>
@@ -22855,7 +22855,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R427">
         <v>21</v>
@@ -22905,7 +22905,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22952,7 +22952,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22999,7 +22999,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -23046,7 +23046,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23096,7 +23096,7 @@
         <v>1</v>
       </c>
       <c r="Q432">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R432">
         <v>17</v>
@@ -23146,7 +23146,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23190,7 +23190,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23237,7 +23237,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23284,7 +23284,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23334,7 +23334,7 @@
         <v>1</v>
       </c>
       <c r="Q437">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R437">
         <v>22</v>
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23528,7 +23528,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23578,7 +23578,7 @@
         <v>1</v>
       </c>
       <c r="Q442">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R442">
         <v>14</v>
@@ -23631,7 +23631,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23681,7 +23681,7 @@
         <v>1</v>
       </c>
       <c r="Q444">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R444">
         <v>14</v>
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23781,7 +23781,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23831,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23881,7 +23881,7 @@
         <v>1</v>
       </c>
       <c r="Q448">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R448">
         <v>14</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -24028,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -24075,7 +24075,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24122,7 +24122,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24169,7 +24169,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24219,7 +24219,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R455">
         <v>14</v>
@@ -24272,7 +24272,7 @@
         <v>1</v>
       </c>
       <c r="Q456">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R456">
         <v>21</v>
@@ -24325,7 +24325,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R457">
         <v>19</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24425,7 +24425,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24475,7 +24475,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24522,7 +24522,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24666,7 +24666,7 @@
         <v>1</v>
       </c>
       <c r="Q464">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R464">
         <v>25</v>
@@ -24716,7 +24716,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24763,7 +24763,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24813,7 +24813,7 @@
         <v>1</v>
       </c>
       <c r="Q467">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R467">
         <v>8</v>
@@ -24866,7 +24866,7 @@
         <v>1</v>
       </c>
       <c r="Q468">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R468">
         <v>13</v>
@@ -24916,7 +24916,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24966,7 +24966,7 @@
         <v>1</v>
       </c>
       <c r="Q470">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R470">
         <v>6</v>
@@ -25010,10 +25010,10 @@
         <v>1</v>
       </c>
       <c r="P471" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q471">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -25054,7 +25054,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
